--- a/tests/testthat/_snaps/knitxl/hrules.xlsx
+++ b/tests/testthat/_snaps/knitxl/hrules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Testing Hrules</t>
   </si>
@@ -23,13 +23,7 @@
     <t xml:space="preserve">Text before hrule</t>
   </si>
   <si>
-    <t xml:space="preserve">******</t>
-  </si>
-  <si>
     <t xml:space="preserve">Text between hrules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-----</t>
   </si>
   <si>
     <t xml:space="preserve">Text after hrules</t>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,14 +69,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,24 +391,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/_snaps/knitxl/hrules.xlsx
+++ b/tests/testthat/_snaps/knitxl/hrules.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve">Testing Hrules</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Text before hrule</t>
   </si>
   <si>
-    <t xml:space="preserve">Text before hrule</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Text between hrules</t>
@@ -381,19 +381,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -412,7 +407,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
